--- a/spring-boot-web/src/main/resources/static/template/乡镇户籍导入模板.xlsx
+++ b/spring-boot-web/src/main/resources/static/template/乡镇户籍导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9312"/>
+    <workbookView windowWidth="23040" windowHeight="8735"/>
   </bookViews>
   <sheets>
     <sheet name="HlDBGrid Data (2)" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>XX行社农户基础资料数据</t>
   </si>
   <si>
-    <t>机构号</t>
+    <t>机构号（必填）</t>
   </si>
   <si>
     <t>网格编号</t>
@@ -43,19 +43,19 @@
     <t>自然村</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>公民身份号码</t>
+    <t>姓名（必填）</t>
+  </si>
+  <si>
+    <t>公民身份号码 （必填）</t>
   </si>
   <si>
     <t>地址</t>
   </si>
   <si>
-    <t>与户主关系</t>
-  </si>
-  <si>
-    <t>户号</t>
+    <t>与户主关系 （每户只能有一个户主）</t>
+  </si>
+  <si>
+    <t>户号 （必填）</t>
   </si>
   <si>
     <t>联系方式</t>
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -118,44 +118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,8 +132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,53 +142,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,127 +187,178 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="64">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,97 +373,229 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,174 +607,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -655,85 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,51 +677,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -871,6 +713,59 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -889,17 +784,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,13 +806,13 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,256 +821,256 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="55" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="62" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="63" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1231,8 +1117,8 @@
     <cellStyle name="输入" xfId="4" builtinId="20"/>
     <cellStyle name="货币" xfId="5" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="计算 2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="8"/>
     <cellStyle name="差" xfId="9" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
@@ -1267,9 +1153,9 @@
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="40"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="42" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="43" builtinId="34"/>
     <cellStyle name="输出 2" xfId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="45" builtinId="34"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="45"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="46" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="47" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
@@ -1279,8 +1165,8 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="53" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="54" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="55"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="56" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="55" builtinId="51"/>
+    <cellStyle name="适中 2" xfId="56"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="57"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="58" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="59"/>
@@ -1587,16 +1473,21 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="7" max="7" width="8.6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.9" customWidth="1"/>
+    <col min="2" max="3" width="13.3" customWidth="1"/>
+    <col min="4" max="4" width="15.1" customWidth="1"/>
+    <col min="5" max="5" width="11.9" customWidth="1"/>
+    <col min="6" max="6" width="10.6" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.9" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.6" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.2" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.6" style="1" customWidth="1"/>
